--- a/python_part/Обработанные данные.xlsx
+++ b/python_part/Обработанные данные.xlsx
@@ -447,650 +447,650 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>880.36</v>
+        <v>1100</v>
       </c>
       <c r="B2" t="n">
-        <v>1100</v>
+        <v>880.3331999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>880.3</v>
+        <v>1105</v>
       </c>
       <c r="B3" t="n">
-        <v>1105</v>
+        <v>880.2778000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>880.25</v>
+        <v>1110</v>
       </c>
       <c r="B4" t="n">
-        <v>1110</v>
+        <v>880.2356000000005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>880.22</v>
+        <v>1115</v>
       </c>
       <c r="B5" t="n">
-        <v>1115</v>
+        <v>880.209999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>880.2</v>
+        <v>1120</v>
       </c>
       <c r="B6" t="n">
-        <v>1120</v>
+        <v>880.1999999999997</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>880.2</v>
+        <v>1125</v>
       </c>
       <c r="B7" t="n">
-        <v>1125</v>
+        <v>880.1978000000008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>880.1900000000001</v>
+        <v>1130</v>
       </c>
       <c r="B8" t="n">
-        <v>1130</v>
+        <v>880.1566000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>880.11</v>
+        <v>1135</v>
       </c>
       <c r="B9" t="n">
-        <v>1135</v>
+        <v>880.0554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>879.98</v>
+        <v>1140</v>
       </c>
       <c r="B10" t="n">
-        <v>1140</v>
+        <v>879.8933999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>879.79</v>
+        <v>1145</v>
       </c>
       <c r="B11" t="n">
-        <v>1145</v>
+        <v>879.6721999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>879.54</v>
+        <v>1150</v>
       </c>
       <c r="B12" t="n">
-        <v>1150</v>
+        <v>879.3922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>879.24</v>
+        <v>1155</v>
       </c>
       <c r="B13" t="n">
-        <v>1155</v>
+        <v>879.0956000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>878.95</v>
+        <v>1160</v>
       </c>
       <c r="B14" t="n">
-        <v>1160</v>
+        <v>878.8159999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>878.6799999999999</v>
+        <v>1165</v>
       </c>
       <c r="B15" t="n">
-        <v>1165</v>
+        <v>878.5552000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>878.4299999999999</v>
+        <v>1170</v>
       </c>
       <c r="B16" t="n">
-        <v>1170</v>
+        <v>878.3131999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>878.1900000000001</v>
+        <v>1175</v>
       </c>
       <c r="B17" t="n">
-        <v>1175</v>
+        <v>878.0893999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>877.98</v>
+        <v>1180</v>
       </c>
       <c r="B18" t="n">
-        <v>1180</v>
+        <v>877.891</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>877.8</v>
+        <v>1185</v>
       </c>
       <c r="B19" t="n">
-        <v>1185</v>
+        <v>877.7220000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>877.65</v>
+        <v>1190</v>
       </c>
       <c r="B20" t="n">
-        <v>1190</v>
+        <v>877.5826000000002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>877.52</v>
+        <v>1195</v>
       </c>
       <c r="B21" t="n">
-        <v>1195</v>
+        <v>877.4726000000003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>877.4299999999999</v>
+        <v>1200</v>
       </c>
       <c r="B22" t="n">
-        <v>1200</v>
+        <v>877.3906000000004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>877.36</v>
+        <v>1205</v>
       </c>
       <c r="B23" t="n">
-        <v>1205</v>
+        <v>877.3342000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>877.3099999999999</v>
+        <v>1210</v>
       </c>
       <c r="B24" t="n">
-        <v>1210</v>
+        <v>877.3026000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>877.29</v>
+        <v>1215</v>
       </c>
       <c r="B25" t="n">
-        <v>1215</v>
+        <v>877.2938000000009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>877.3</v>
+        <v>1220</v>
       </c>
       <c r="B26" t="n">
-        <v>1220</v>
+        <v>877.3126000000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>877.33</v>
+        <v>1225</v>
       </c>
       <c r="B27" t="n">
-        <v>1225</v>
+        <v>877.3371999999991</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>877.35</v>
+        <v>1230</v>
       </c>
       <c r="B28" t="n">
-        <v>1230</v>
+        <v>877.3459999999989</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>877.34</v>
+        <v>1235</v>
       </c>
       <c r="B29" t="n">
-        <v>1235</v>
+        <v>877.3296000000005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>877.3099999999999</v>
+        <v>1240</v>
       </c>
       <c r="B30" t="n">
-        <v>1240</v>
+        <v>877.2923999999994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>877.27</v>
+        <v>1245</v>
       </c>
       <c r="B31" t="n">
-        <v>1245</v>
+        <v>877.2337999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>877.2</v>
+        <v>1250</v>
       </c>
       <c r="B32" t="n">
-        <v>1250</v>
+        <v>877.1582</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>877.12</v>
+        <v>1255</v>
       </c>
       <c r="B33" t="n">
-        <v>1255</v>
+        <v>877.0858000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>877.05</v>
+        <v>1260</v>
       </c>
       <c r="B34" t="n">
-        <v>1260</v>
+        <v>877.0213999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>876.99</v>
+        <v>1265</v>
       </c>
       <c r="B35" t="n">
-        <v>1265</v>
+        <v>876.9645999999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>876.9400000000001</v>
+        <v>1270</v>
       </c>
       <c r="B36" t="n">
-        <v>1270</v>
+        <v>876.9164000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>876.89</v>
+        <v>1275</v>
       </c>
       <c r="B37" t="n">
-        <v>1275</v>
+        <v>876.8758000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>876.86</v>
+        <v>1280</v>
       </c>
       <c r="B38" t="n">
-        <v>1280</v>
+        <v>876.8479999999988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>876.84</v>
+        <v>1285</v>
       </c>
       <c r="B39" t="n">
-        <v>1285</v>
+        <v>876.832400000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>876.83</v>
+        <v>1290</v>
       </c>
       <c r="B40" t="n">
-        <v>1290</v>
+        <v>876.8300000000011</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>876.83</v>
+        <v>1295</v>
       </c>
       <c r="B41" t="n">
-        <v>1295</v>
+        <v>876.8399999999996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>876.85</v>
+        <v>1300</v>
       </c>
       <c r="B42" t="n">
-        <v>1300</v>
+        <v>876.8497999999993</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>876.84</v>
+        <v>1305</v>
       </c>
       <c r="B43" t="n">
-        <v>1305</v>
+        <v>876.8236000000003</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>876.8</v>
+        <v>1310</v>
       </c>
       <c r="B44" t="n">
-        <v>1310</v>
+        <v>876.7536000000003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>876.7</v>
+        <v>1315</v>
       </c>
       <c r="B45" t="n">
-        <v>1315</v>
+        <v>876.6399999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>876.5700000000001</v>
+        <v>1320</v>
       </c>
       <c r="B46" t="n">
-        <v>1320</v>
+        <v>876.4852000000005</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>876.4</v>
+        <v>1325</v>
       </c>
       <c r="B47" t="n">
-        <v>1325</v>
+        <v>876.3156</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>876.23</v>
+        <v>1330</v>
       </c>
       <c r="B48" t="n">
-        <v>1330</v>
+        <v>876.1427999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>876.05</v>
+        <v>1335</v>
       </c>
       <c r="B49" t="n">
-        <v>1335</v>
+        <v>875.9688000000002</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>875.88</v>
+        <v>1340</v>
       </c>
       <c r="B50" t="n">
-        <v>1340</v>
+        <v>875.7924</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>875.7</v>
+        <v>1345</v>
       </c>
       <c r="B51" t="n">
-        <v>1345</v>
+        <v>875.614</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>875.52</v>
+        <v>1350</v>
       </c>
       <c r="B52" t="n">
-        <v>1350</v>
+        <v>875.4409999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>875.36</v>
+        <v>1355</v>
       </c>
       <c r="B53" t="n">
-        <v>1355</v>
+        <v>875.2833999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>875.21</v>
+        <v>1360</v>
       </c>
       <c r="B54" t="n">
-        <v>1360</v>
+        <v>875.1416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>875.0700000000001</v>
+        <v>1365</v>
       </c>
       <c r="B55" t="n">
-        <v>1365</v>
+        <v>875.0160000000003</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>874.96</v>
+        <v>1370</v>
       </c>
       <c r="B56" t="n">
-        <v>1370</v>
+        <v>874.9008</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>874.84</v>
+        <v>1375</v>
       </c>
       <c r="B57" t="n">
-        <v>1375</v>
+        <v>874.7746</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>874.7</v>
+        <v>1380</v>
       </c>
       <c r="B58" t="n">
-        <v>1380</v>
+        <v>874.6313999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>874.55</v>
+        <v>1385</v>
       </c>
       <c r="B59" t="n">
-        <v>1385</v>
+        <v>874.4736000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>874.39</v>
+        <v>1390</v>
       </c>
       <c r="B60" t="n">
-        <v>1390</v>
+        <v>874.2996000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>874.2</v>
+        <v>1395</v>
       </c>
       <c r="B61" t="n">
-        <v>1395</v>
+        <v>874.1098</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>874.01</v>
+        <v>1400</v>
       </c>
       <c r="B62" t="n">
-        <v>1400</v>
+        <v>873.9169999999998</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>873.8200000000001</v>
+        <v>1405</v>
       </c>
       <c r="B63" t="n">
-        <v>1405</v>
+        <v>873.7276000000003</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>873.63</v>
+        <v>1410</v>
       </c>
       <c r="B64" t="n">
-        <v>1410</v>
+        <v>873.5422</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>873.45</v>
+        <v>1415</v>
       </c>
       <c r="B65" t="n">
-        <v>1415</v>
+        <v>873.3602000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>873.27</v>
+        <v>1420</v>
       </c>
       <c r="B66" t="n">
-        <v>1420</v>
+        <v>873.1827999999998</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>873.1</v>
+        <v>1425</v>
       </c>
       <c r="B67" t="n">
-        <v>1425</v>
+        <v>873.0211999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>872.9400000000001</v>
+        <v>1430</v>
       </c>
       <c r="B68" t="n">
-        <v>1430</v>
+        <v>872.8789999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>872.8099999999999</v>
+        <v>1435</v>
       </c>
       <c r="B69" t="n">
-        <v>1435</v>
+        <v>872.7572000000004</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>872.7</v>
+        <v>1440</v>
       </c>
       <c r="B70" t="n">
-        <v>1440</v>
+        <v>872.6566000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>872.61</v>
+        <v>1445</v>
       </c>
       <c r="B71" t="n">
-        <v>1445</v>
+        <v>872.5744000000009</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>872.54</v>
+        <v>1450</v>
       </c>
       <c r="B72" t="n">
-        <v>1450</v>
+        <v>872.4990000000005</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>872.46</v>
+        <v>1455</v>
       </c>
       <c r="B73" t="n">
-        <v>1455</v>
+        <v>872.4264000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>872.39</v>
+        <v>1460</v>
       </c>
       <c r="B74" t="n">
-        <v>1460</v>
+        <v>872.3564</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>872.3200000000001</v>
+        <v>1465</v>
       </c>
       <c r="B75" t="n">
-        <v>1465</v>
+        <v>872.2889999999996</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>872.26</v>
+        <v>1470</v>
       </c>
       <c r="B76" t="n">
-        <v>1470</v>
+        <v>872.2225999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>872.1900000000001</v>
+        <v>1475</v>
       </c>
       <c r="B77" t="n">
-        <v>1475</v>
+        <v>872.1464000000005</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>872.1</v>
+        <v>1480</v>
       </c>
       <c r="B78" t="n">
-        <v>1480</v>
+        <v>872.0559999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>872.01</v>
+        <v>1485</v>
       </c>
       <c r="B79" t="n">
-        <v>1485</v>
+        <v>871.9526000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>871.89</v>
+        <v>1490</v>
       </c>
       <c r="B80" t="n">
-        <v>1490</v>
+        <v>871.8350000000003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>871.77</v>
+        <v>1495</v>
       </c>
       <c r="B81" t="n">
-        <v>1495</v>
+        <v>871.7074000000002</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B82" t="n">
         <v>871.64</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>
